--- a/dataSet/data.xlsx
+++ b/dataSet/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchoudhary\Desktop\Insight\installer\test-frameworks\Automation\DDNi-Automation\dataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchoudhary\Desktop\DDNi-Automation\dataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4241DC69-A658-4875-A1C2-3712C957D163}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D43DAC-89F1-4292-8C9A-3EFE4D20F4D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="4" xr2:uid="{BEDD7149-0784-4C95-9FF0-F0A52D0291CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{BEDD7149-0784-4C95-9FF0-F0A52D0291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
   <si>
     <t>User Name</t>
   </si>
@@ -103,28 +103,16 @@
     <t>z1</t>
   </si>
   <si>
+    <t>updatez1</t>
+  </si>
+  <si>
+    <t>xc@g.com</t>
+  </si>
+  <si>
+    <t>rweewrw</t>
+  </si>
+  <si>
     <t>z2</t>
-  </si>
-  <si>
-    <t>z3</t>
-  </si>
-  <si>
-    <t>z4</t>
-  </si>
-  <si>
-    <t>z5</t>
-  </si>
-  <si>
-    <t>updatez1</t>
-  </si>
-  <si>
-    <t>xc@g.com</t>
-  </si>
-  <si>
-    <t>rweewrw</t>
-  </si>
-  <si>
-    <t>ds</t>
   </si>
 </sst>
 </file>
@@ -715,10 +703,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07BA8D1-1EEF-4890-B80A-8B028CDDBFA0}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -786,7 +774,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -798,96 +786,22 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G3">
         <v>123456</v>
       </c>
       <c r="H3">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4">
-        <v>123456</v>
-      </c>
-      <c r="H4">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5">
-        <v>123456</v>
-      </c>
-      <c r="H5">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6">
-        <v>123456</v>
-      </c>
-      <c r="H6">
         <v>123456</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{980009C8-97E4-48C6-A6A4-4AA10CBFB3D9}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{5AC1DB62-D67B-44AD-9DAF-11EE9B753E22}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{EB917A6D-2604-4604-BCD4-142106CC28AE}"/>
-    <hyperlink ref="E5" r:id="rId4" xr:uid="{9C559825-47B5-410B-95A1-9CFAF51FA442}"/>
-    <hyperlink ref="E6" r:id="rId5" xr:uid="{FB53A2EA-AD51-439E-B8A6-61838AE7FA8C}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{8200E3AD-8990-40A8-8149-EAD1E7E288B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -935,13 +849,13 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -959,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AC84E8-F63E-49D4-AC61-EF58C962B9D0}">
   <dimension ref="B1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,7 +898,7 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>123456</v>

--- a/dataSet/data.xlsx
+++ b/dataSet/data.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kchoudhary\Desktop\DDNi-Automation\dataSet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D43DAC-89F1-4292-8C9A-3EFE4D20F4D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAF9900-7B72-4CB8-AF27-82AF0B68845C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{BEDD7149-0784-4C95-9FF0-F0A52D0291CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{BEDD7149-0784-4C95-9FF0-F0A52D0291CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="67">
   <si>
     <t>User Name</t>
   </si>
@@ -113,6 +114,132 @@
   </si>
   <si>
     <t>z2</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>dss</t>
+  </si>
+  <si>
+    <t>xcx</t>
+  </si>
+  <si>
+    <t>xc@f.com</t>
+  </si>
+  <si>
+    <t>_y</t>
+  </si>
+  <si>
+    <t>rtr</t>
+  </si>
+  <si>
+    <t>g@g.com</t>
+  </si>
+  <si>
+    <t>_z</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>1w</t>
+  </si>
+  <si>
+    <t>nb</t>
+  </si>
+  <si>
+    <t>NB</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>ram</t>
+  </si>
+  <si>
+    <t>sda</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>rw</t>
+  </si>
+  <si>
+    <t>wd</t>
+  </si>
+  <si>
+    <t>kj</t>
+  </si>
+  <si>
+    <t>we</t>
+  </si>
+  <si>
+    <t>fdfs</t>
+  </si>
+  <si>
+    <t>sds</t>
+  </si>
+  <si>
+    <t>adC</t>
+  </si>
+  <si>
+    <t>fs</t>
+  </si>
+  <si>
+    <t>qe</t>
+  </si>
+  <si>
+    <t>onh</t>
+  </si>
+  <si>
+    <t>b5</t>
+  </si>
+  <si>
+    <t>5r</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>w@r.com</t>
+  </si>
+  <si>
+    <t>w@c.com</t>
+  </si>
+  <si>
+    <t>w@d.com</t>
+  </si>
+  <si>
+    <t>kv@g.com</t>
+  </si>
+  <si>
+    <t>a@c.com</t>
+  </si>
+  <si>
+    <t>r@t.com</t>
+  </si>
+  <si>
+    <t>f@e.com</t>
+  </si>
+  <si>
+    <t>a@q.com</t>
+  </si>
+  <si>
+    <t>b@z.com</t>
+  </si>
+  <si>
+    <t>b@d.com</t>
   </si>
 </sst>
 </file>
@@ -705,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07BA8D1-1EEF-4890-B80A-8B028CDDBFA0}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="A1:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -806,6 +933,350 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D586A9B9-C036-491F-BCFE-EDF15D6B9908}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="7" max="7" width="28.21875" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2">
+        <v>123456</v>
+      </c>
+      <c r="H2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>53</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3">
+        <v>123456</v>
+      </c>
+      <c r="H3">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>123456</v>
+      </c>
+      <c r="H4">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5">
+        <v>123456</v>
+      </c>
+      <c r="H5">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>43</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>123456</v>
+      </c>
+      <c r="H6">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7">
+        <v>123456</v>
+      </c>
+      <c r="H7">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>123456</v>
+      </c>
+      <c r="H8">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
+        <v>123456</v>
+      </c>
+      <c r="H9">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>123456</v>
+      </c>
+      <c r="H10">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11">
+        <v>123456</v>
+      </c>
+      <c r="H11">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>123456</v>
+      </c>
+      <c r="H12">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13">
+        <v>123456</v>
+      </c>
+      <c r="H13">
+        <v>123456</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{C483B074-67BA-4827-85AE-BB2DDCACC2E3}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{6E07BA4F-CBB8-49CB-9347-4E4A82FF8794}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{99223F68-D512-484F-8B20-B03C944DC27D}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{84658EEB-E7B3-4E72-9EF1-460B2E9B4AA3}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{2199C460-C969-4023-8D66-81DDFFB6631D}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{67DC8AFA-980D-4CDF-B3FB-DBA0AC958201}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{EE3AFB5F-1626-4AFA-B01D-96E1177268AD}"/>
+    <hyperlink ref="E9" r:id="rId8" xr:uid="{6B94ACDF-9C15-4C1C-8CC5-C54A9CBB6DA1}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{539C801D-9EC7-4021-BC4D-0E6D6EE6A564}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{322D33F3-8831-4172-BCA8-422BDCEF8690}"/>
+    <hyperlink ref="E12" r:id="rId11" xr:uid="{8CAD5A5D-4C95-49EA-A352-A6BD09F77E9F}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{8E888D90-0D15-43E8-B8F6-180B4A7611DD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B25533D3-234A-4B61-9D1B-41C0F09B9E26}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -869,7 +1340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AC84E8-F63E-49D4-AC61-EF58C962B9D0}">
   <dimension ref="B1:D2"/>
   <sheetViews>
